--- a/tools_izz/SPRT_Tool.xlsx
+++ b/tools_izz/SPRT_Tool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\SPRT\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\SPRT\code\clts\tools_izz\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5099" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5110" uniqueCount="1203">
   <si>
     <t>//用户</t>
   </si>
@@ -3636,6 +3636,50 @@
   </si>
   <si>
     <t>GTId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g11</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -21938,8 +21982,8 @@
   </sheetPr>
   <dimension ref="A1:IV1476"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1391" workbookViewId="0">
-      <selection activeCell="B1402" sqref="B1402"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -23938,8 +23982,8 @@
       <c r="B85" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C85" s="4">
-        <v>1</v>
+      <c r="C85" s="4" t="s">
+        <v>1192</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -23972,8 +24016,8 @@
       <c r="B86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="4">
-        <v>2</v>
+      <c r="C86" s="4" t="s">
+        <v>1193</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -24006,8 +24050,8 @@
       <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="4">
-        <v>3</v>
+      <c r="C87" s="4" t="s">
+        <v>1194</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -24040,8 +24084,8 @@
       <c r="B88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C88" s="4">
-        <v>4</v>
+      <c r="C88" s="4" t="s">
+        <v>1195</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -24144,8 +24188,8 @@
       <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="4">
-        <v>5</v>
+      <c r="C92" s="4" t="s">
+        <v>1196</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -24176,8 +24220,8 @@
       <c r="B93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="4">
-        <v>6</v>
+      <c r="C93" s="4" t="s">
+        <v>1197</v>
       </c>
       <c r="D93" s="4">
         <v>2</v>
@@ -24208,8 +24252,8 @@
       <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="4">
-        <v>7</v>
+      <c r="C94" s="4" t="s">
+        <v>1198</v>
       </c>
       <c r="D94" s="4">
         <v>3</v>
@@ -24240,8 +24284,8 @@
       <c r="B95" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C95" s="4">
-        <v>8</v>
+      <c r="C95" s="4" t="s">
+        <v>1199</v>
       </c>
       <c r="D95" s="4">
         <v>4</v>
@@ -24272,8 +24316,8 @@
       <c r="B96" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C96" s="4">
-        <v>9</v>
+      <c r="C96" s="4" t="s">
+        <v>1200</v>
       </c>
       <c r="D96" s="4">
         <v>5</v>
@@ -24304,8 +24348,8 @@
       <c r="B97" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C97" s="4">
-        <v>10</v>
+      <c r="C97" s="4" t="s">
+        <v>1201</v>
       </c>
       <c r="D97" s="4">
         <v>6</v>
@@ -24336,8 +24380,8 @@
       <c r="B98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C98" s="4">
-        <v>11</v>
+      <c r="C98" s="4" t="s">
+        <v>1202</v>
       </c>
       <c r="D98" s="4">
         <v>4</v>
